--- a/BoM/BOM_automated_MEW_platform.xlsx
+++ b/BoM/BOM_automated_MEW_platform.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/n8448779_qut_edu_au/Documents/My papers/Hardware X - MEW platform/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github repo\automated_mew_platform\BoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="845" documentId="8_{18974021-8CC7-4730-AE8D-7ACC343B4F49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2E77873-7927-4623-ACA9-B279ADF99728}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D57FC5A-2FC1-491E-BBAE-EBFE9B5DEE52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B4054C14-A606-4C73-B9F1-21780D16DF14}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B4054C14-A606-4C73-B9F1-21780D16DF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="363">
   <si>
     <t>Component</t>
   </si>
@@ -280,9 +280,6 @@
     <t>1/4" x 8mm Flexible Coupling</t>
   </si>
   <si>
-    <t>http://openbuildspartstore.com/1-4-x-8mm-flexible-coupling/</t>
-  </si>
-  <si>
     <t>SKU 155</t>
   </si>
   <si>
@@ -632,9 +629,6 @@
   </si>
   <si>
     <t>Profile 20 x 20 mm (slot 6 mm)</t>
-  </si>
-  <si>
-    <t>Profile 20 x 80 mm (V slot)</t>
   </si>
   <si>
     <r>
@@ -1447,12 +1441,76 @@
   <si>
     <t>68W 5VDC &amp; 24VDC dual output switching power supply (RD-65B)</t>
   </si>
+  <si>
+    <t>Profile 20 x80 mm (V slot)</t>
+  </si>
+  <si>
+    <t>Nut M5</t>
+  </si>
+  <si>
+    <t>Low profile M5x15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SCREWS-M5-LP-15/10 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pack of 10</t>
+    </r>
+  </si>
+  <si>
+    <t>Teflon</t>
+  </si>
+  <si>
+    <t>Brass ring</t>
+  </si>
+  <si>
+    <t>Enclosure</t>
+  </si>
+  <si>
+    <t>USB to TTL Serial Cable</t>
+  </si>
+  <si>
+    <t>ADA954</t>
+  </si>
+  <si>
+    <t>329-7178</t>
+  </si>
+  <si>
+    <t>111-3066</t>
+  </si>
+  <si>
+    <t>DIN rail Omron 5 Pin Relay Socket</t>
+  </si>
+  <si>
+    <t>Omron 24VDC coil non-latching relay SPDT, 10A</t>
+  </si>
+  <si>
+    <t>Black Shorting Link for DIN rail terminals</t>
+  </si>
+  <si>
+    <t>Red Shorting Link for DIN rail terminals</t>
+  </si>
+  <si>
+    <t>P2469</t>
+  </si>
+  <si>
+    <t>P2463</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1550,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1519,7 +1585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1530,6 +1596,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,8 +1622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1D3A3FC-076F-4DBE-A2CA-BCF9C1B818FB}" name="Table2" displayName="Table2" ref="A1:F99" totalsRowShown="0">
-  <autoFilter ref="A1:F99" xr:uid="{C8CA85C9-3463-4836-A3EB-57FFC2AB0244}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1D3A3FC-076F-4DBE-A2CA-BCF9C1B818FB}" name="Table2" displayName="Table2" ref="A1:F98" totalsRowShown="0">
+  <autoFilter ref="A1:F98" xr:uid="{C8CA85C9-3463-4836-A3EB-57FFC2AB0244}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{80395295-FF2A-47AE-AF0D-06B3C609ADD6}" name="Componenet"/>
     <tableColumn id="2" xr3:uid="{99C7BD2A-DD73-48A9-AFBD-D3A4E4EFBBA7}" name="Source"/>
@@ -1572,8 +1639,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EE5CDA5-8D0B-4B71-9252-D3094A7035A5}" name="Table3" displayName="Table3" ref="A1:F82" totalsRowShown="0">
-  <autoFilter ref="A1:F82" xr:uid="{177A9E44-F6DC-4EF6-9651-CDAA645EE035}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EE5CDA5-8D0B-4B71-9252-D3094A7035A5}" name="Table3" displayName="Table3" ref="A1:F75" totalsRowShown="0">
+  <autoFilter ref="A1:F75" xr:uid="{177A9E44-F6DC-4EF6-9651-CDAA645EE035}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{68B58E8D-CFF5-46C4-9AB7-7EDB0A1BD3D5}" name="Component"/>
     <tableColumn id="2" xr3:uid="{D5B59500-3BE1-4C27-8039-126CCDFEAC2B}" name="Source"/>
@@ -1885,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502BC3CC-4DC8-4EA2-ADB9-DF1E4F84FB7E}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,13 +2021,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D3">
         <v>19.463999999999999</v>
@@ -1987,13 +2054,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D4">
         <v>2.21</v>
@@ -2020,23 +2087,23 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>22.97</v>
+        <v>22.82</v>
       </c>
       <c r="F5" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>22.97</v>
+        <v>45.64</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -2062,14 +2129,14 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>2.16</v>
       </c>
       <c r="F6" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>95.04</v>
+        <v>108</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -2095,14 +2162,14 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>1.66</v>
       </c>
       <c r="F7" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>9.9599999999999991</v>
+        <v>66.399999999999991</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -2118,21 +2185,24 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>191</v>
+      <c r="A8" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3.08</v>
       </c>
       <c r="F8" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -2148,21 +2218,24 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>192</v>
+      <c r="A9" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3.08</v>
       </c>
       <c r="F9" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -2179,317 +2252,335 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10">
         <v>3.85</v>
       </c>
       <c r="F10" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>54</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>9.84</v>
+        <v>3.85</v>
       </c>
       <c r="F11" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>9.84</v>
+        <v>7.7</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>4.62</v>
+        <v>9.84</v>
       </c>
       <c r="F12" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>9.84</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>2.89</v>
+        <v>4.62</v>
       </c>
       <c r="F13" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>3.39</v>
+        <v>2.89</v>
       </c>
       <c r="F14" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>10.17</v>
+        <v>5.78</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>11.93</v>
+        <v>1.38</v>
       </c>
       <c r="F15" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>71.58</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" t="s">
-        <v>69</v>
+        <v>13.799999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3.39</v>
       </c>
       <c r="F16" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>10.17</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>326</v>
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>15.26</v>
+        <v>11.93</v>
       </c>
       <c r="F17" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>15.26</v>
+        <v>71.58</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>125.38</v>
+      <c r="A18" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>376.14</v>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>15.26</v>
+      </c>
       <c r="F19" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" t="s">
-        <v>74</v>
-      </c>
-      <c r="M19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="J20">
-        <v>8</v>
-      </c>
-      <c r="K20" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>125.38</v>
+      </c>
       <c r="F21" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" t="s">
-        <v>81</v>
+        <v>376.14</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
       <c r="F23" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
@@ -2500,1144 +2591,1183 @@
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>350</v>
+      </c>
       <c r="F26" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>351</v>
+      </c>
       <c r="F27" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="1">
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>549.99</v>
+      </c>
+      <c r="F29" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>549.99</v>
+      </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>549.99</v>
-      </c>
-      <c r="F30" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>549.99</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="1"/>
+      <c r="L31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>26</v>
+      <c r="A32" t="s">
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1"/>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="F33" s="1"/>
       <c r="J33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="F34" s="1"/>
       <c r="J34">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1"/>
       <c r="J35">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="K35" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" t="s">
         <v>97</v>
       </c>
-      <c r="L35" t="s">
-        <v>98</v>
-      </c>
       <c r="M35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1"/>
       <c r="J36">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1"/>
       <c r="J37">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>6</v>
       </c>
       <c r="F38" s="1"/>
       <c r="J38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1"/>
       <c r="J39">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>10</v>
       </c>
       <c r="F40" s="1"/>
       <c r="J40">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1"/>
       <c r="J41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1"/>
       <c r="J42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F43" s="1"/>
       <c r="J43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1"/>
       <c r="J44">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1"/>
       <c r="J45">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1"/>
       <c r="J46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F47" s="1"/>
       <c r="J47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1"/>
       <c r="J48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="F49" s="1"/>
       <c r="J49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1"/>
       <c r="J50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M50" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="1"/>
       <c r="J51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F52" s="1"/>
       <c r="J52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L52" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F53" s="1"/>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D54">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1"/>
       <c r="J54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54" t="s">
+        <v>151</v>
+      </c>
+      <c r="L54" t="s">
         <v>149</v>
       </c>
-      <c r="L54" t="s">
-        <v>150</v>
-      </c>
       <c r="M54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1"/>
       <c r="J55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L55" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1"/>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M56" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1"/>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57" t="s">
+        <v>159</v>
+      </c>
+      <c r="L57" t="s">
         <v>157</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>158</v>
-      </c>
-      <c r="M57" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1"/>
       <c r="J58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K58" t="s">
         <v>160</v>
       </c>
       <c r="L58" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M58" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1"/>
       <c r="J59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M59" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1"/>
       <c r="J60">
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="M60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1"/>
       <c r="J61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L61" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1"/>
       <c r="J62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F63" s="1"/>
       <c r="J63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="D64">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1"/>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L64" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1"/>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L65" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M65" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1"/>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1"/>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1"/>
       <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68" t="s">
-        <v>187</v>
-      </c>
-      <c r="L68" t="s">
-        <v>188</v>
-      </c>
-      <c r="M68" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="J69">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3646,43 +3776,43 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3691,13 +3821,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3712,37 +3842,37 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -3751,71 +3881,62 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F83" s="1"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>7.7</v>
+      </c>
+      <c r="F83" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>7.7</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>327</v>
+      <c r="A84" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
-      </c>
-      <c r="C84" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>7.7</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
       <c r="F85" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
@@ -3899,16 +4020,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="1">
-        <f>SUM(F3:F99)</f>
-        <v>1400.5716599999998</v>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="1">
+        <f>SUM(F3:F98)</f>
+        <v>1660.0616600000001</v>
       </c>
     </row>
   </sheetData>
@@ -3922,10 +4037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242B8A8-C87E-45B6-A870-5B9AB09679FD}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3938,7 +4053,7 @@
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3958,24 +4073,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F2">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3988,15 +4103,15 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4009,30 +4124,45 @@
         <v>40.76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>17.18</v>
+      </c>
       <c r="F5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>34.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" t="s">
-        <v>262</v>
-      </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4045,69 +4175,69 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
         <v>289</v>
       </c>
-      <c r="B8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F8" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s">
         <v>292</v>
       </c>
-      <c r="F9" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
         <v>294</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
         <v>295</v>
-      </c>
-      <c r="B11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" t="s">
-        <v>297</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -4120,597 +4250,741 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>302</v>
+        <v>223</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1148</v>
+      </c>
+      <c r="F15" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>1148</v>
+      </c>
+      <c r="I15">
+        <f>-I23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="6"/>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="6"/>
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>94.09</v>
+      </c>
+      <c r="F21">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>282.27</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
+      <c r="A22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3.03</v>
+      </c>
+      <c r="F22">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>9.09</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>226</v>
+        <v>252</v>
+      </c>
+      <c r="F23" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>94.09</v>
-      </c>
-      <c r="F24">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>282.27</v>
+        <v>1542.95</v>
+      </c>
+      <c r="F24" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>1542.95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1667.21</v>
+      </c>
+      <c r="F25" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>1667.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>153.16</v>
+      </c>
+      <c r="F27" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>153.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F28">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33">
+        <v>0.25</v>
+      </c>
+      <c r="E33">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="F33">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>9.9049999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>20.81</v>
+      </c>
+      <c r="F34">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>41.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>557</v>
+      </c>
+      <c r="F36" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F38" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>256</v>
       </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>3.03</v>
-      </c>
-      <c r="F25">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="B40" t="s">
+        <v>334</v>
+      </c>
+      <c r="C40" t="s">
+        <v>257</v>
+      </c>
+      <c r="F40" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>264</v>
-      </c>
-      <c r="B28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" t="s">
-        <v>268</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1542.95</v>
-      </c>
-      <c r="F28" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>1542.95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" t="s">
-        <v>267</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1667.21</v>
-      </c>
-      <c r="F29" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>1667.21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>269</v>
-      </c>
-      <c r="B30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" t="s">
-        <v>270</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>40</v>
-      </c>
-      <c r="F30" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>271</v>
-      </c>
-      <c r="B31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>153.16</v>
-      </c>
-      <c r="F31" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>153.16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F42" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F34">
+    <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F36">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D37">
-        <v>0.25</v>
-      </c>
-      <c r="E37">
-        <v>39.619999999999997</v>
-      </c>
-      <c r="F37">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>9.9049999999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>248</v>
-      </c>
-      <c r="B38" t="s">
-        <v>332</v>
-      </c>
-      <c r="C38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D38">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>57.88</v>
+      </c>
+      <c r="F44" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>57.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>38.28</v>
+      </c>
+      <c r="F45" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>38.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>23.49</v>
+      </c>
+      <c r="F46" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>14.86</v>
+      </c>
+      <c r="F47" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48">
         <v>2</v>
       </c>
-      <c r="E38">
-        <v>20.81</v>
-      </c>
-      <c r="F38">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>41.62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F41" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>299</v>
-      </c>
-      <c r="B43" t="s">
-        <v>300</v>
-      </c>
-      <c r="C43" t="s">
-        <v>301</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>557</v>
-      </c>
-      <c r="F43" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F44" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F45" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>235</v>
+      <c r="E48">
+        <v>2.19</v>
       </c>
       <c r="F48" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>259</v>
+        <v>314</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>7.63</v>
       </c>
       <c r="F49" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>236</v>
+      <c r="A50" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C50" t="s">
+        <v>317</v>
+      </c>
+      <c r="D50">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>2.23</v>
       </c>
       <c r="F50" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>57.98</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>280</v>
+      <c r="A51" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C51" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>4.43</v>
       </c>
       <c r="F51" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B52" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" t="s">
+        <v>355</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>11.41</v>
+      </c>
       <c r="F52" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>237</v>
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>357</v>
+      </c>
+      <c r="B53" t="s">
+        <v>333</v>
+      </c>
+      <c r="C53" t="s">
+        <v>356</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>7.58</v>
       </c>
       <c r="F53" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>57.88</v>
+        <v>2.87</v>
       </c>
       <c r="F54" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>57.88</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>38.28</v>
+        <v>2.87</v>
       </c>
       <c r="F55" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>38.28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>347</v>
-      </c>
-      <c r="B56" t="s">
-        <v>239</v>
-      </c>
-      <c r="C56" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>23.49</v>
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="F56" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>23.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>245</v>
-      </c>
-      <c r="B57" t="s">
-        <v>285</v>
-      </c>
-      <c r="C57" t="s">
-        <v>247</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>14.86</v>
+      <c r="A57" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="F57" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>14.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" t="s">
-        <v>286</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>2.19</v>
-      </c>
       <c r="F58" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>317</v>
-      </c>
-      <c r="B59" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59" t="s">
-        <v>316</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>7.63</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="F59" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>320</v>
+      <c r="A60" t="s">
+        <v>272</v>
       </c>
       <c r="B60" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C60" t="s">
-        <v>319</v>
+        <v>277</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>2.23</v>
+        <v>6.63</v>
       </c>
       <c r="F60" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>321</v>
+      <c r="A61" t="s">
+        <v>273</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C61" t="s">
-        <v>322</v>
+        <v>274</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>4.43</v>
+        <v>1.38</v>
       </c>
       <c r="F61" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1.38</v>
+      </c>
       <c r="F62" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>238</v>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="F63" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
@@ -4719,7 +4993,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="F64" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
@@ -4727,298 +5001,202 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F66" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+      <c r="A65" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B65" t="s">
+        <v>340</v>
+      </c>
+      <c r="C65" t="s">
+        <v>342</v>
+      </c>
+      <c r="D65">
+        <v>0.2</v>
+      </c>
+      <c r="E65">
+        <v>78.39</v>
+      </c>
+      <c r="F65" s="1">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>15.678000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" t="s">
+        <v>341</v>
+      </c>
+      <c r="D66">
+        <v>0.2</v>
+      </c>
+      <c r="E66">
+        <v>50.47</v>
+      </c>
+      <c r="F66" s="1">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>10.094000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B67" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C67" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>6.63</v>
+        <v>5.46</v>
       </c>
       <c r="F67" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>6.63</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C68" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1.38</v>
+        <v>13.9</v>
       </c>
       <c r="F68" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>1.38</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1.38</v>
+        <v>7.62</v>
       </c>
       <c r="F69" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>1.38</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>281</v>
+      <c r="A70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" t="s">
+        <v>331</v>
+      </c>
+      <c r="C70" t="s">
+        <v>313</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>9.1300000000000008</v>
       </c>
       <c r="F70" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>65.41</v>
+      </c>
+      <c r="F71" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>65.41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>305</v>
+      </c>
+      <c r="B72" t="s">
+        <v>331</v>
+      </c>
+      <c r="C72" t="s">
+        <v>306</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F72" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>3.15</v>
+      </c>
+      <c r="F73" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="6">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F71" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B72" t="s">
-        <v>342</v>
-      </c>
-      <c r="C72" t="s">
-        <v>344</v>
-      </c>
-      <c r="D72">
-        <v>0.2</v>
-      </c>
-      <c r="E72">
-        <v>78.39</v>
-      </c>
-      <c r="F72" s="1">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>15.678000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B73" t="s">
-        <v>342</v>
-      </c>
-      <c r="C73" t="s">
-        <v>343</v>
-      </c>
-      <c r="D73">
-        <v>0.2</v>
-      </c>
-      <c r="E73">
-        <v>50.47</v>
-      </c>
-      <c r="F73" s="1">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>10.094000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>304</v>
-      </c>
-      <c r="B74" t="s">
-        <v>332</v>
-      </c>
-      <c r="C74" t="s">
-        <v>310</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>5.46</v>
-      </c>
-      <c r="F74" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.46</v>
-      </c>
-    </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>305</v>
-      </c>
-      <c r="B75" t="s">
-        <v>332</v>
-      </c>
-      <c r="C75" t="s">
-        <v>309</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>13.9</v>
-      </c>
       <c r="F75" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>306</v>
-      </c>
-      <c r="B76" t="s">
-        <v>333</v>
-      </c>
-      <c r="C76" t="s">
-        <v>311</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>7.62</v>
-      </c>
-      <c r="F76" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>314</v>
-      </c>
-      <c r="B77" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" t="s">
-        <v>315</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="F77" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>9.1300000000000008</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>329</v>
-      </c>
-      <c r="B78" t="s">
-        <v>330</v>
-      </c>
-      <c r="C78" t="s">
-        <v>331</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>65.41</v>
-      </c>
-      <c r="F78" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>65.41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>307</v>
-      </c>
-      <c r="B79" t="s">
-        <v>333</v>
-      </c>
-      <c r="C79" t="s">
-        <v>308</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F79" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>312</v>
-      </c>
-      <c r="B80" t="s">
-        <v>333</v>
-      </c>
-      <c r="C80" t="s">
-        <v>313</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>3.15</v>
-      </c>
-      <c r="F80" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="6">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>

--- a/BoM/BOM_automated_MEW_platform.xlsx
+++ b/BoM/BOM_automated_MEW_platform.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github repo\automated_mew_platform\BoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github repo\automated_mew_platform\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D57FC5A-2FC1-491E-BBAE-EBFE9B5DEE52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5B349D-52AE-4966-B3E7-36B83DB6BDB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B4054C14-A606-4C73-B9F1-21780D16DF14}"/>
+    <workbookView xWindow="5430" yWindow="255" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B4054C14-A606-4C73-B9F1-21780D16DF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="368">
   <si>
     <t>Component</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>Drop In Tee Nuts</t>
-  </si>
-  <si>
-    <t>http://openbuildspartstore.com/drop-in-tee-nuts/</t>
   </si>
   <si>
     <t>SKU 230</t>
@@ -954,9 +951,6 @@
     <t>This includes:</t>
   </si>
   <si>
-    <t>(1)290mm (1) 315mm (1) 455mm</t>
-  </si>
-  <si>
     <t>Printbed</t>
   </si>
   <si>
@@ -993,16 +987,10 @@
     <t>Heating element - ring</t>
   </si>
   <si>
-    <t>K-type thermocouple</t>
-  </si>
-  <si>
     <t>High voltage</t>
   </si>
   <si>
     <t>Pneumatic pressure system</t>
-  </si>
-  <si>
-    <t>Schmaltz pressure sensor</t>
   </si>
   <si>
     <t>Power unit</t>
@@ -1186,9 +1174,6 @@
     </r>
   </si>
   <si>
-    <t>Schmaltz connecting cable</t>
-  </si>
-  <si>
     <t>Power cable - RED</t>
   </si>
   <si>
@@ -1467,12 +1452,6 @@
     </r>
   </si>
   <si>
-    <t>Teflon</t>
-  </si>
-  <si>
-    <t>Brass ring</t>
-  </si>
-  <si>
     <t>Enclosure</t>
   </si>
   <si>
@@ -1504,6 +1483,42 @@
   </si>
   <si>
     <t>P2463</t>
+  </si>
+  <si>
+    <t>Rauschert (Germany)</t>
+  </si>
+  <si>
+    <t>Teflon main body</t>
+  </si>
+  <si>
+    <t>Teflon cap</t>
+  </si>
+  <si>
+    <t>Teflon small insert</t>
+  </si>
+  <si>
+    <t>Brass insert</t>
+  </si>
+  <si>
+    <t>Eastagate engineering (Australia)</t>
+  </si>
+  <si>
+    <t>Quotation based on the provided drawings</t>
+  </si>
+  <si>
+    <t>Cynebar (Australia)</t>
+  </si>
+  <si>
+    <t>Watlow K-type thermocouple</t>
+  </si>
+  <si>
+    <t>Schmaltz pressure sensor including connecting cable</t>
+  </si>
+  <si>
+    <t>Schmalz Australia (Australia)</t>
+  </si>
+  <si>
+    <t>10.06.02.00561</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1569,6 +1584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,18 +1606,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1622,8 +1645,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1D3A3FC-076F-4DBE-A2CA-BCF9C1B818FB}" name="Table2" displayName="Table2" ref="A1:F98" totalsRowShown="0">
-  <autoFilter ref="A1:F98" xr:uid="{C8CA85C9-3463-4836-A3EB-57FFC2AB0244}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1D3A3FC-076F-4DBE-A2CA-BCF9C1B818FB}" name="Table2" displayName="Table2" ref="A1:F85" totalsRowShown="0">
+  <autoFilter ref="A1:F85" xr:uid="{C8CA85C9-3463-4836-A3EB-57FFC2AB0244}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{80395295-FF2A-47AE-AF0D-06B3C609ADD6}" name="Componenet"/>
     <tableColumn id="2" xr3:uid="{99C7BD2A-DD73-48A9-AFBD-D3A4E4EFBBA7}" name="Source"/>
@@ -1639,8 +1662,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EE5CDA5-8D0B-4B71-9252-D3094A7035A5}" name="Table3" displayName="Table3" ref="A1:F75" totalsRowShown="0">
-  <autoFilter ref="A1:F75" xr:uid="{177A9E44-F6DC-4EF6-9651-CDAA645EE035}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EE5CDA5-8D0B-4B71-9252-D3094A7035A5}" name="Table3" displayName="Table3" ref="A1:F72" totalsRowShown="0">
+  <autoFilter ref="A1:F72" xr:uid="{177A9E44-F6DC-4EF6-9651-CDAA645EE035}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{68B58E8D-CFF5-46C4-9AB7-7EDB0A1BD3D5}" name="Component"/>
     <tableColumn id="2" xr3:uid="{D5B59500-3BE1-4C27-8039-126CCDFEAC2B}" name="Source"/>
@@ -1952,17 +1975,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502BC3CC-4DC8-4EA2-ADB9-DF1E4F84FB7E}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -2002,10 +2025,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
       <c r="J2">
         <v>1</v>
       </c>
@@ -2021,13 +2048,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3">
         <v>19.463999999999999</v>
@@ -2054,13 +2081,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4">
         <v>2.21</v>
@@ -2087,13 +2114,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2186,13 +2213,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -2219,13 +2246,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2252,13 +2279,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2273,13 +2300,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2309,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2339,13 +2366,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2372,13 +2399,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2405,13 +2432,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2491,7 +2518,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="1">
@@ -2512,14 +2539,14 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>324</v>
+      <c r="A19" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2533,23 +2560,24 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F20" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
+      <c r="A20" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>323</v>
+      <c r="A21" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2563,8 +2591,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>348</v>
+      <c r="A22" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -2575,8 +2603,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>190</v>
+      <c r="A23" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2586,1071 +2614,1079 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="1">
+    <row r="24" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="10"/>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>85.55</v>
+      </c>
+      <c r="F25" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>36.22</v>
+      </c>
+      <c r="F26" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>15.1</v>
+      </c>
+      <c r="F27" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>63.6</v>
+      </c>
+      <c r="F28" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" t="s">
-        <v>74</v>
-      </c>
-      <c r="M24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="J25">
-        <v>8</v>
-      </c>
-      <c r="K25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>350</v>
-      </c>
-      <c r="F26" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>351</v>
-      </c>
-      <c r="F27" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="J28">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="10"/>
+      <c r="J30">
         <v>2</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K30" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" t="s">
         <v>81</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M30" t="s">
         <v>82</v>
       </c>
-      <c r="M28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>549.99</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F31" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>549.99</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" t="s">
         <v>84</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M31" t="s">
         <v>85</v>
       </c>
-      <c r="M29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32" t="s">
-        <v>90</v>
-      </c>
-      <c r="L32" t="s">
-        <v>91</v>
-      </c>
-      <c r="M32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1"/>
       <c r="J33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="F34" s="1"/>
       <c r="J34">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1"/>
       <c r="J35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1"/>
       <c r="J36">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" t="s">
         <v>97</v>
-      </c>
-      <c r="M36" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1"/>
       <c r="J37">
         <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1"/>
       <c r="J38">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K38" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1"/>
       <c r="J39">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1"/>
       <c r="J40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L40" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M40" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1"/>
       <c r="J41">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="M41" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1"/>
       <c r="J42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1"/>
       <c r="J43">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K43" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M43" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1"/>
       <c r="J44">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L44" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M44" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1"/>
       <c r="J45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K45" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L45" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M45" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F46" s="1"/>
       <c r="J46">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="K46" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L46" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M46" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1"/>
       <c r="J47">
         <v>8</v>
       </c>
       <c r="K47" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L47" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M47" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1"/>
       <c r="J48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K48" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L48" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M48" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1"/>
       <c r="J49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="1"/>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1"/>
       <c r="J51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M51" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1"/>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L52" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M52" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="D53">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1"/>
       <c r="J53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L53" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M53" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" s="1"/>
       <c r="J54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L54" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M54" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F55" s="1"/>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L55" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M55" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D56">
         <v>8</v>
       </c>
       <c r="F56" s="1"/>
       <c r="J56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L56" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M56" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1"/>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M57" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1"/>
       <c r="J58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F59" s="1"/>
       <c r="J59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M59" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1"/>
       <c r="J60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L60" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M60" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1"/>
       <c r="J61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L61" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M61" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1"/>
       <c r="J62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L62" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="M62" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="D63">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1"/>
       <c r="J63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L63" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M63" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1"/>
       <c r="J64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K64" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L64" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M64" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F65" s="1"/>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L65" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M65" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -3660,99 +3696,123 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L66" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M66" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1"/>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L67" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M67" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1"/>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>182</v>
+      </c>
+      <c r="L68" t="s">
+        <v>183</v>
+      </c>
+      <c r="M68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="F69" s="1"/>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>185</v>
+      </c>
+      <c r="L69" t="s">
+        <v>186</v>
+      </c>
+      <c r="M69" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F70" s="1"/>
+      <c r="J70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3761,43 +3821,43 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3806,22 +3866,22 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -3836,107 +3896,132 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82">
         <v>2</v>
       </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>325</v>
-      </c>
-      <c r="B83" t="s">
-        <v>326</v>
-      </c>
-      <c r="C83" t="s">
-        <v>301</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
+    <row r="83" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" t="s">
+        <v>321</v>
+      </c>
+      <c r="C84" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
         <v>7.7</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F84" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>7.7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" t="s">
         <v>14</v>
       </c>
-      <c r="F84" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F85" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
@@ -3944,86 +4029,8 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F86" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F89" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F91" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F93" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F95" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100" s="1">
-        <f>SUM(F3:F98)</f>
-        <v>1660.0616600000001</v>
+        <f>SUM(F3:F85)</f>
+        <v>1860.5316599999999</v>
       </c>
     </row>
   </sheetData>
@@ -4037,10 +4044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242B8A8-C87E-45B6-A870-5B9AB09679FD}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4053,7 +4060,7 @@
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4073,24 +4080,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4103,15 +4111,15 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4124,15 +4132,15 @@
         <v>40.76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4145,24 +4153,25 @@
         <v>34.36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4170,74 +4179,104 @@
       <c r="E7">
         <v>7.41</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>7.41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4.74</v>
+      </c>
+      <c r="F8" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F9" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" t="s">
         <v>287</v>
       </c>
-      <c r="B8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1.18</v>
+      </c>
+      <c r="F10" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
         <v>289</v>
       </c>
-      <c r="F8" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0.81</v>
+      </c>
+      <c r="F11" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" t="s">
         <v>290</v>
-      </c>
-      <c r="F9" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" t="s">
-        <v>295</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -4245,29 +4284,33 @@
       <c r="E12">
         <v>1.34</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>2.68</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>300</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4275,53 +4318,54 @@
       <c r="E15">
         <v>1148</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>1148</v>
       </c>
-      <c r="I15">
-        <f>-I23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>336</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>338</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>337</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>332</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="A20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" t="s">
         <v>225</v>
-      </c>
-      <c r="B21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -4336,13 +4380,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -4356,23 +4400,24 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
+      <c r="A23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" t="s">
         <v>262</v>
-      </c>
-      <c r="B24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" t="s">
-        <v>266</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4380,20 +4425,20 @@
       <c r="E24">
         <v>1542.95</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>1542.95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4401,20 +4446,20 @@
       <c r="E25">
         <v>1667.21</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>1667.21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4422,20 +4467,20 @@
       <c r="E26">
         <v>40</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4443,32 +4488,45 @@
       <c r="E27">
         <v>153.16</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>153.16</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
+      <c r="A28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="B29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>192.73</v>
       </c>
       <c r="F29">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>192.73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>230</v>
+      <c r="A30" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>356</v>
       </c>
       <c r="F30">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
@@ -4477,577 +4535,660 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F31" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>364</v>
+      </c>
+      <c r="B31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>15.23</v>
+      </c>
+      <c r="F31">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>30.46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>231</v>
+      <c r="A32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32">
+        <v>0.25</v>
+      </c>
+      <c r="E32">
+        <v>39.619999999999997</v>
       </c>
       <c r="F32">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>9.9049999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D33">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>39.619999999999997</v>
+        <v>20.81</v>
       </c>
       <c r="F33">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>9.9049999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>246</v>
-      </c>
-      <c r="B34" t="s">
-        <v>330</v>
-      </c>
-      <c r="C34" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>20.81</v>
-      </c>
-      <c r="F34">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>41.62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35" s="6">
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>557</v>
+      </c>
+      <c r="F35" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>297</v>
-      </c>
-      <c r="B36" t="s">
-        <v>298</v>
-      </c>
-      <c r="C36" t="s">
-        <v>299</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>557</v>
-      </c>
-      <c r="F36" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>557</v>
-      </c>
-    </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="A37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F38" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>294.2</v>
+      </c>
+      <c r="F39" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>294.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C40" t="s">
+        <v>367</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>150</v>
+      </c>
+      <c r="F40" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" t="s">
         <v>233</v>
       </c>
-      <c r="F39" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>256</v>
-      </c>
-      <c r="B40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C40" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="C42" t="s">
         <v>234</v>
       </c>
-      <c r="F41" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F42" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>57.88</v>
+      </c>
+      <c r="F42" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>57.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" t="s">
         <v>235</v>
       </c>
-      <c r="F43" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>38.28</v>
+      </c>
+      <c r="F43" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>38.28</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>57.88</v>
-      </c>
-      <c r="F44" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>57.88</v>
+        <v>23.49</v>
+      </c>
+      <c r="F44" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>23.49</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>38.28</v>
-      </c>
-      <c r="F45" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>38.28</v>
+        <v>14.86</v>
+      </c>
+      <c r="F45" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>14.86</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>23.49</v>
-      </c>
-      <c r="F46" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>23.49</v>
+        <v>2.19</v>
+      </c>
+      <c r="F46" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>4.38</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>14.86</v>
-      </c>
-      <c r="F47" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>14.86</v>
+        <v>7.63</v>
+      </c>
+      <c r="F47" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>7.63</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>281</v>
+      <c r="A48" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="C48" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="D48">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <v>2.23</v>
+      </c>
+      <c r="F48" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>57.98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B49" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" t="s">
+        <v>315</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>4.43</v>
+      </c>
+      <c r="F49" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>11.41</v>
+      </c>
+      <c r="F50" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C51" t="s">
+        <v>349</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>7.58</v>
+      </c>
+      <c r="F51" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>352</v>
+      </c>
+      <c r="B52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" t="s">
+        <v>354</v>
+      </c>
+      <c r="D52">
         <v>2</v>
       </c>
-      <c r="E48">
-        <v>2.19</v>
-      </c>
-      <c r="F48" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>315</v>
-      </c>
-      <c r="B49" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" t="s">
-        <v>314</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>7.63</v>
-      </c>
-      <c r="F49" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B50" t="s">
-        <v>316</v>
-      </c>
-      <c r="C50" t="s">
-        <v>317</v>
-      </c>
-      <c r="D50">
-        <v>26</v>
-      </c>
-      <c r="E50">
-        <v>2.23</v>
-      </c>
-      <c r="F50" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>57.98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B51" t="s">
-        <v>316</v>
-      </c>
-      <c r="C51" t="s">
-        <v>320</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>4.43</v>
-      </c>
-      <c r="F51" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>17.72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B52" t="s">
-        <v>333</v>
-      </c>
-      <c r="C52" t="s">
-        <v>355</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
       <c r="E52">
-        <v>11.41</v>
-      </c>
-      <c r="F52" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>11.41</v>
+        <v>2.87</v>
+      </c>
+      <c r="F52" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>5.74</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>7.58</v>
-      </c>
-      <c r="F53" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>359</v>
-      </c>
-      <c r="B54" t="s">
-        <v>316</v>
-      </c>
-      <c r="C54" t="s">
-        <v>361</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
         <v>2.87</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F53" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>5.74</v>
       </c>
     </row>
+    <row r="54" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+    </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>360</v>
+      <c r="A55" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="B55" t="s">
-        <v>316</v>
-      </c>
-      <c r="C55" t="s">
-        <v>362</v>
+        <v>335</v>
+      </c>
+      <c r="C55">
+        <v>2847408</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55">
-        <v>2.87</v>
-      </c>
-      <c r="F55" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.74</v>
+        <v>388.26</v>
+      </c>
+      <c r="F55" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>776.52</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="A56" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" t="s">
+        <v>325</v>
+      </c>
+      <c r="C57" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>6.63</v>
+      </c>
+      <c r="F57" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1.38</v>
+      </c>
+      <c r="F58" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" t="s">
+        <v>325</v>
+      </c>
+      <c r="C59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1.38</v>
+      </c>
+      <c r="F59" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F60" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F57" s="6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F61" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F59" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>272</v>
-      </c>
-      <c r="B60" t="s">
-        <v>330</v>
-      </c>
-      <c r="C60" t="s">
-        <v>277</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>6.63</v>
-      </c>
-      <c r="F60" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>6.63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>273</v>
-      </c>
-      <c r="B61" t="s">
-        <v>330</v>
-      </c>
-      <c r="C61" t="s">
-        <v>274</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1.38</v>
-      </c>
-      <c r="F61" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>1.38</v>
-      </c>
-    </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>275</v>
+      <c r="A62" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="B62" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E62">
-        <v>1.38</v>
-      </c>
-      <c r="F62" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>1.38</v>
+        <v>78.39</v>
+      </c>
+      <c r="F62" s="1">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>15.678000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F63" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>338</v>
+      </c>
+      <c r="B63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" t="s">
+        <v>336</v>
+      </c>
+      <c r="D63">
+        <v>0.2</v>
+      </c>
+      <c r="E63">
+        <v>50.47</v>
+      </c>
+      <c r="F63" s="1">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>10.094000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F64" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+      <c r="A64" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" t="s">
+        <v>325</v>
+      </c>
+      <c r="C64" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>5.46</v>
+      </c>
+      <c r="F64" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>5.46</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>344</v>
+      <c r="A65" t="s">
+        <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D65">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>78.39</v>
-      </c>
-      <c r="F65" s="1">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>15.678000000000001</v>
+        <v>13.9</v>
+      </c>
+      <c r="F65" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>13.9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>343</v>
+      <c r="A66" t="s">
+        <v>299</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C66" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="D66">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>50.47</v>
-      </c>
-      <c r="F66" s="1">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>10.094000000000001</v>
+        <v>7.62</v>
+      </c>
+      <c r="F66" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>7.62</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C67" t="s">
         <v>308</v>
@@ -5056,147 +5197,84 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>5.46</v>
-      </c>
-      <c r="F67" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.46</v>
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F67" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C68" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>13.9</v>
-      </c>
-      <c r="F68" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>13.9</v>
+        <v>65.41</v>
+      </c>
+      <c r="F68" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>65.41</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B69" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>7.62</v>
-      </c>
-      <c r="F69" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.62</v>
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F69" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B70" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C70" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="F70" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>9.1300000000000008</v>
+        <v>3.15</v>
+      </c>
+      <c r="F70" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>3.15</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B71" t="s">
-        <v>328</v>
-      </c>
-      <c r="C71" t="s">
-        <v>329</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>65.41</v>
-      </c>
-      <c r="F71" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>65.41</v>
+      <c r="F71" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>305</v>
-      </c>
-      <c r="B72" t="s">
-        <v>331</v>
-      </c>
-      <c r="C72" t="s">
-        <v>306</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F72" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>310</v>
-      </c>
-      <c r="B73" t="s">
-        <v>331</v>
-      </c>
-      <c r="C73" t="s">
-        <v>311</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>3.15</v>
-      </c>
-      <c r="F73" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F74" s="6">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F75" s="6">
+      <c r="F72" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>

--- a/BoM/BOM_automated_MEW_platform.xlsx
+++ b/BoM/BOM_automated_MEW_platform.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github repo\automated_mew_platform\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub repo\automated_mew_platform\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5B349D-52AE-4966-B3E7-36B83DB6BDB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB5E0B0-5300-4F27-8BCB-83345C86C1BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="255" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B4054C14-A606-4C73-B9F1-21780D16DF14}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B4054C14-A606-4C73-B9F1-21780D16DF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="378">
   <si>
     <t>Component</t>
   </si>
@@ -1174,12 +1174,6 @@
     </r>
   </si>
   <si>
-    <t>Power cable - RED</t>
-  </si>
-  <si>
-    <t>Power cable - BLACK</t>
-  </si>
-  <si>
     <t>Flexible 3-core mains cable</t>
   </si>
   <si>
@@ -1362,9 +1356,6 @@
     <t>Uberlock (USA)</t>
   </si>
   <si>
-    <t>RS Componenets (Australia)</t>
-  </si>
-  <si>
     <t>SMC Pneumatics (USA)</t>
   </si>
   <si>
@@ -1506,12 +1497,6 @@
     <t>Quotation based on the provided drawings</t>
   </si>
   <si>
-    <t>Cynebar (Australia)</t>
-  </si>
-  <si>
-    <t>Watlow K-type thermocouple</t>
-  </si>
-  <si>
     <t>Schmaltz pressure sensor including connecting cable</t>
   </si>
   <si>
@@ -1519,6 +1504,51 @@
   </si>
   <si>
     <t>10.06.02.00561</t>
+  </si>
+  <si>
+    <t>804-7915</t>
+  </si>
+  <si>
+    <t>RS PRO K-type thermocouple</t>
+  </si>
+  <si>
+    <t>RS PRO ANSI thermocouple connector male</t>
+  </si>
+  <si>
+    <t>RS PRO ANSI thermocouple connector female</t>
+  </si>
+  <si>
+    <t>769-1173</t>
+  </si>
+  <si>
+    <t>769-1101</t>
+  </si>
+  <si>
+    <t>2m power cable, IEC to AS/NZS 3112</t>
+  </si>
+  <si>
+    <t>909-2178</t>
+  </si>
+  <si>
+    <t>Input connector</t>
+  </si>
+  <si>
+    <t>output connector</t>
+  </si>
+  <si>
+    <t>Input hose</t>
+  </si>
+  <si>
+    <t>Output hose</t>
+  </si>
+  <si>
+    <t>T junction</t>
+  </si>
+  <si>
+    <t>Power cable 0.5mm^2- RED</t>
+  </si>
+  <si>
+    <t>Power cable 0.5mm^2 - BLACK</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1692,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EE5CDA5-8D0B-4B71-9252-D3094A7035A5}" name="Table3" displayName="Table3" ref="A1:F72" totalsRowShown="0">
-  <autoFilter ref="A1:F72" xr:uid="{177A9E44-F6DC-4EF6-9651-CDAA645EE035}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EE5CDA5-8D0B-4B71-9252-D3094A7035A5}" name="Table3" displayName="Table3" ref="A1:F80" totalsRowShown="0">
+  <autoFilter ref="A1:F80" xr:uid="{177A9E44-F6DC-4EF6-9651-CDAA645EE035}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{68B58E8D-CFF5-46C4-9AB7-7EDB0A1BD3D5}" name="Component"/>
     <tableColumn id="2" xr3:uid="{D5B59500-3BE1-4C27-8039-126CCDFEAC2B}" name="Source"/>
@@ -1977,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502BC3CC-4DC8-4EA2-ADB9-DF1E4F84FB7E}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2144,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2279,7 +2309,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -2336,7 +2366,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2432,13 +2462,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2540,13 +2570,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" t="s">
         <v>319</v>
       </c>
-      <c r="B19" t="s">
-        <v>321</v>
-      </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2561,7 +2591,7 @@
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2571,13 +2601,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2592,7 +2622,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -2638,13 +2668,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2659,13 +2689,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" t="s">
         <v>358</v>
       </c>
-      <c r="B26" t="s">
-        <v>361</v>
-      </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2680,13 +2710,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" t="s">
         <v>359</v>
-      </c>
-      <c r="B27" t="s">
-        <v>361</v>
-      </c>
-      <c r="C27" t="s">
-        <v>362</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2701,13 +2731,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3996,13 +4026,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4044,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242B8A8-C87E-45B6-A870-5B9AB09679FD}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4095,7 +4125,7 @@
         <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
         <v>257</v>
@@ -4116,7 +4146,7 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
         <v>247</v>
@@ -4134,13 +4164,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4171,7 +4201,7 @@
         <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4186,13 +4216,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>233</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4207,13 +4237,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
         <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4228,13 +4258,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -4249,13 +4279,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
         <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -4270,13 +4300,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
         <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -4304,13 +4334,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4331,19 +4361,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -4508,7 +4538,7 @@
         <v>227</v>
       </c>
       <c r="B29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4526,7 +4556,7 @@
         <v>228</v>
       </c>
       <c r="B30" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F30">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
@@ -4538,743 +4568,854 @@
         <v>364</v>
       </c>
       <c r="B31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" t="s">
         <v>363</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>15.23</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="F31">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>30.46</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>244</v>
+      <c r="A32" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="D32">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>39.619999999999997</v>
-      </c>
-      <c r="F32">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>9.9049999999999994</v>
+        <v>7.53</v>
+      </c>
+      <c r="F32" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>15.06</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>242</v>
+      <c r="A33" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="B33" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>243</v>
+        <v>367</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33">
-        <v>20.81</v>
-      </c>
-      <c r="F33">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>41.62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+        <v>3.23</v>
+      </c>
+      <c r="F33" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34">
+        <v>0.25</v>
+      </c>
+      <c r="E34">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="F34">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>9.9049999999999994</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>20.81</v>
+      </c>
+      <c r="F35">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>41.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" t="s">
         <v>292</v>
       </c>
-      <c r="B35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C35" t="s">
-        <v>294</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>557</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F37" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>557</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F36" s="5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F37" s="5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>252</v>
       </c>
-      <c r="B39" t="s">
-        <v>329</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B41" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" t="s">
         <v>253</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>294.2</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F41" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>294.2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B40" t="s">
-        <v>366</v>
-      </c>
-      <c r="C40" t="s">
-        <v>367</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B42" t="s">
+        <v>361</v>
+      </c>
+      <c r="C42" t="s">
+        <v>362</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>150</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F42" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F43" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F44" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F45" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F46" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F47" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>237</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B49" t="s">
         <v>233</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C49" t="s">
         <v>234</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>57.88</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F49" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>57.88</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>238</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B50" t="s">
         <v>233</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C50" t="s">
         <v>235</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>38.28</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F50" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>38.28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>340</v>
-      </c>
-      <c r="B44" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>23.49</v>
-      </c>
-      <c r="F44" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>23.49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" t="s">
-        <v>278</v>
-      </c>
-      <c r="C45" t="s">
-        <v>241</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>14.86</v>
-      </c>
-      <c r="F45" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>14.86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>276</v>
-      </c>
-      <c r="B46" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" t="s">
-        <v>279</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>2.19</v>
-      </c>
-      <c r="F46" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>310</v>
-      </c>
-      <c r="B47" t="s">
-        <v>240</v>
-      </c>
-      <c r="C47" t="s">
-        <v>309</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>7.63</v>
-      </c>
-      <c r="F47" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B48" t="s">
-        <v>311</v>
-      </c>
-      <c r="C48" t="s">
-        <v>312</v>
-      </c>
-      <c r="D48">
-        <v>26</v>
-      </c>
-      <c r="E48">
-        <v>2.23</v>
-      </c>
-      <c r="F48" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>57.98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B49" t="s">
-        <v>311</v>
-      </c>
-      <c r="C49" t="s">
-        <v>315</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>4.43</v>
-      </c>
-      <c r="F49" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>17.72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B50" t="s">
-        <v>328</v>
-      </c>
-      <c r="C50" t="s">
-        <v>348</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>11.41</v>
-      </c>
-      <c r="F50" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>11.41</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>7.58</v>
+        <v>23.49</v>
       </c>
       <c r="F51" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.58</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C52" t="s">
-        <v>354</v>
+        <v>241</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>2.87</v>
+        <v>14.86</v>
       </c>
       <c r="F52" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.74</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C53" t="s">
+        <v>370</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>13.01</v>
+      </c>
+      <c r="F53" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2.19</v>
+      </c>
+      <c r="F54" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>308</v>
+      </c>
+      <c r="B55" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" t="s">
+        <v>307</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>7.63</v>
+      </c>
+      <c r="F55" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C53" t="s">
-        <v>355</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>2.87</v>
-      </c>
-      <c r="F53" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B55" t="s">
-        <v>335</v>
-      </c>
-      <c r="C55">
-        <v>2847408</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>388.26</v>
-      </c>
-      <c r="F55" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>776.52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
+      <c r="B56" t="s">
+        <v>309</v>
+      </c>
+      <c r="C56" t="s">
+        <v>310</v>
+      </c>
+      <c r="D56">
+        <v>26</v>
+      </c>
+      <c r="E56">
+        <v>2.23</v>
+      </c>
+      <c r="F56" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>57.98</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>268</v>
+      <c r="A57" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="B57" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C57" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>6.63</v>
+        <v>4.43</v>
       </c>
       <c r="F57" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>6.63</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>269</v>
+      <c r="A58" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1.38</v>
+        <v>11.41</v>
       </c>
       <c r="F58" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>1.38</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="C59" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1.38</v>
+        <v>7.58</v>
       </c>
       <c r="F59" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>1.38</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>274</v>
+      <c r="A60" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" t="s">
+        <v>351</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2.87</v>
       </c>
       <c r="F60" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>275</v>
+      <c r="A61" t="s">
+        <v>350</v>
+      </c>
+      <c r="B61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" t="s">
+        <v>352</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2.87</v>
       </c>
       <c r="F61" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B62" t="s">
-        <v>335</v>
-      </c>
-      <c r="C62" t="s">
-        <v>337</v>
-      </c>
-      <c r="D62">
-        <v>0.2</v>
-      </c>
-      <c r="E62">
-        <v>78.39</v>
-      </c>
-      <c r="F62" s="1">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>15.678000000000001</v>
-      </c>
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>338</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
-      </c>
-      <c r="C63" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="C63">
+        <v>2847408</v>
       </c>
       <c r="D63">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>50.47</v>
-      </c>
-      <c r="F63" s="1">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>10.094000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>297</v>
-      </c>
-      <c r="B64" t="s">
-        <v>325</v>
-      </c>
-      <c r="C64" t="s">
-        <v>303</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>5.46</v>
-      </c>
-      <c r="F64" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.46</v>
-      </c>
+        <v>388.26</v>
+      </c>
+      <c r="F63" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>776.52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="B65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>13.9</v>
+        <v>6.63</v>
       </c>
       <c r="F65" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>13.9</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C66" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>7.62</v>
+        <v>1.38</v>
       </c>
       <c r="F66" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.62</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B67" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C67" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
+        <v>1.38</v>
+      </c>
+      <c r="F67" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F68" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F69" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B70" t="s">
+        <v>332</v>
+      </c>
+      <c r="C70" t="s">
+        <v>334</v>
+      </c>
+      <c r="D70">
+        <v>0.2</v>
+      </c>
+      <c r="E70">
+        <v>78.39</v>
+      </c>
+      <c r="F70" s="1">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>15.678000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71">
+        <v>0.2</v>
+      </c>
+      <c r="E71">
+        <v>50.47</v>
+      </c>
+      <c r="F71" s="1">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>10.094000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" t="s">
+        <v>323</v>
+      </c>
+      <c r="C72" t="s">
+        <v>301</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>5.46</v>
+      </c>
+      <c r="F72" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>296</v>
+      </c>
+      <c r="B73" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" t="s">
+        <v>300</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>13.9</v>
+      </c>
+      <c r="F73" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>297</v>
+      </c>
+      <c r="B74" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>7.62</v>
+      </c>
+      <c r="F74" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>305</v>
+      </c>
+      <c r="B75" t="s">
+        <v>324</v>
+      </c>
+      <c r="C75" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
         <v>9.1300000000000008</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F75" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>320</v>
+      </c>
+      <c r="B76" t="s">
+        <v>321</v>
+      </c>
+      <c r="C76" t="s">
         <v>322</v>
       </c>
-      <c r="B68" t="s">
-        <v>323</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>65.41</v>
+      </c>
+      <c r="F76" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>65.41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" t="s">
         <v>324</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>65.41</v>
-      </c>
-      <c r="F68" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>65.41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>300</v>
-      </c>
-      <c r="B69" t="s">
-        <v>326</v>
-      </c>
-      <c r="C69" t="s">
-        <v>301</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
+      <c r="C77" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
         <v>5.0599999999999996</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F77" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>305</v>
-      </c>
-      <c r="B70" t="s">
-        <v>326</v>
-      </c>
-      <c r="C70" t="s">
-        <v>306</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" t="s">
+        <v>324</v>
+      </c>
+      <c r="C78" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
         <v>3.15</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F78" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>3.15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F71" s="5">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F72" s="5">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>

--- a/BoM/BOM_automated_MEW_platform.xlsx
+++ b/BoM/BOM_automated_MEW_platform.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub repo\automated_mew_platform\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB5E0B0-5300-4F27-8BCB-83345C86C1BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63DDA3-AB75-46BC-A3F8-4447ED3D4845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B4054C14-A606-4C73-B9F1-21780D16DF14}"/>
   </bookViews>
@@ -2007,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502BC3CC-4DC8-4EA2-ADB9-DF1E4F84FB7E}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -4076,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242B8A8-C87E-45B6-A870-5B9AB09679FD}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5410,15 +5410,12 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F79" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+        <f>SUM(F3:F78)</f>
+        <v>7662.8069999999971</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F80" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
+      <c r="F80" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/BoM/BOM_automated_MEW_platform.xlsx
+++ b/BoM/BOM_automated_MEW_platform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub repo\automated_mew_platform\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63DDA3-AB75-46BC-A3F8-4447ED3D4845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC591B4-9F70-4EDD-AE44-336FD600FA0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B4054C14-A606-4C73-B9F1-21780D16DF14}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4054C14-A606-4C73-B9F1-21780D16DF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="375">
   <si>
     <t>Component</t>
   </si>
@@ -103,9 +103,6 @@
     <t>084.500.003</t>
   </si>
   <si>
-    <t>Magnetic pull latch</t>
-  </si>
-  <si>
     <t>Printhead</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
   </si>
   <si>
     <t>C-Beam® Gantry Plate - XLarge</t>
-  </si>
-  <si>
-    <t>http://openbuildspartstore.com/c-beam-gantry-plate-xlarge/</t>
   </si>
   <si>
     <t>SKU 2030</t>
@@ -1200,9 +1194,6 @@
   </si>
   <si>
     <t>High voltage connector</t>
-  </si>
-  <si>
-    <t>Insulation tape</t>
   </si>
   <si>
     <t>Resistor network 10K/10K</t>
@@ -1675,8 +1666,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1D3A3FC-076F-4DBE-A2CA-BCF9C1B818FB}" name="Table2" displayName="Table2" ref="A1:F85" totalsRowShown="0">
-  <autoFilter ref="A1:F85" xr:uid="{C8CA85C9-3463-4836-A3EB-57FFC2AB0244}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1D3A3FC-076F-4DBE-A2CA-BCF9C1B818FB}" name="Table2" displayName="Table2" ref="A1:F84" totalsRowShown="0">
+  <autoFilter ref="A1:F84" xr:uid="{C8CA85C9-3463-4836-A3EB-57FFC2AB0244}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{80395295-FF2A-47AE-AF0D-06B3C609ADD6}" name="Componenet"/>
     <tableColumn id="2" xr3:uid="{99C7BD2A-DD73-48A9-AFBD-D3A4E4EFBBA7}" name="Source"/>
@@ -1692,8 +1683,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EE5CDA5-8D0B-4B71-9252-D3094A7035A5}" name="Table3" displayName="Table3" ref="A1:F80" totalsRowShown="0">
-  <autoFilter ref="A1:F80" xr:uid="{177A9E44-F6DC-4EF6-9651-CDAA645EE035}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EE5CDA5-8D0B-4B71-9252-D3094A7035A5}" name="Table3" displayName="Table3" ref="A1:F79" totalsRowShown="0">
+  <autoFilter ref="A1:F79" xr:uid="{177A9E44-F6DC-4EF6-9651-CDAA645EE035}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{68B58E8D-CFF5-46C4-9AB7-7EDB0A1BD3D5}" name="Component"/>
     <tableColumn id="2" xr3:uid="{D5B59500-3BE1-4C27-8039-126CCDFEAC2B}" name="Source"/>
@@ -2005,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502BC3CC-4DC8-4EA2-ADB9-DF1E4F84FB7E}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,6 +2011,7 @@
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2042,16 +2034,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -2067,24 +2059,24 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3">
         <v>19.463999999999999</v>
@@ -2100,24 +2092,24 @@
         <v>8</v>
       </c>
       <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D4">
         <v>2.21</v>
@@ -2133,24 +2125,24 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2166,13 +2158,13 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2199,13 +2191,13 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
         <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2232,24 +2224,24 @@
         <v>8</v>
       </c>
       <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -2265,24 +2257,24 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2298,24 +2290,24 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>50</v>
-      </c>
-      <c r="M9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2330,13 +2322,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2352,13 +2344,13 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
         <v>52</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>53</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2366,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2385,24 +2377,24 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
         <v>55</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>56</v>
-      </c>
-      <c r="M12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2418,24 +2410,24 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" t="s">
         <v>58</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>59</v>
-      </c>
-      <c r="M13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2451,24 +2443,24 @@
         <v>5</v>
       </c>
       <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
         <v>61</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>62</v>
-      </c>
-      <c r="M14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2505,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
         <v>64</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>65</v>
-      </c>
-      <c r="M16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2538,388 +2530,394 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
         <v>67</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>68</v>
       </c>
-      <c r="M17" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
+      <c r="A18" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>15.26</v>
       </c>
       <c r="F18" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B19" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
         <v>15.26</v>
       </c>
-      <c r="F19" s="1">
+    </row>
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>125.38</v>
+      </c>
+      <c r="F20" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>15.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
+        <v>376.14</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>316</v>
+      <c r="A21" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C21" t="s">
-        <v>315</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>125.38</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>376.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1">
+    <row r="23" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="10"/>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>85.55</v>
+      </c>
+      <c r="F24" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>36.22</v>
+      </c>
+      <c r="F25" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>353</v>
+      </c>
+      <c r="B26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>15.1</v>
+      </c>
+      <c r="F26" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>63.6</v>
+      </c>
+      <c r="F27" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
-      <c r="J24">
-        <v>8</v>
-      </c>
-      <c r="K24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>354</v>
-      </c>
-      <c r="B25" t="s">
-        <v>358</v>
-      </c>
-      <c r="C25" t="s">
-        <v>359</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>85.55</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="10"/>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>549.99</v>
+      </c>
+      <c r="F30" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>85.55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B26" t="s">
-        <v>358</v>
-      </c>
-      <c r="C26" t="s">
-        <v>359</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>36.22</v>
-      </c>
-      <c r="F26" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>36.22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>356</v>
-      </c>
-      <c r="B27" t="s">
-        <v>358</v>
-      </c>
-      <c r="C27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>15.1</v>
-      </c>
-      <c r="F27" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>357</v>
-      </c>
-      <c r="B28" t="s">
-        <v>358</v>
-      </c>
-      <c r="C28" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>63.6</v>
-      </c>
-      <c r="F28" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
+        <v>549.99</v>
+      </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>549.99</v>
-      </c>
-      <c r="F31" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>549.99</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>83</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
         <v>84</v>
       </c>
-      <c r="M31" t="s">
+      <c r="L32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F32" s="1"/>
+      <c r="M32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>26</v>
+      <c r="A33" t="s">
+        <v>27</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1"/>
       <c r="J33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="F34" s="1"/>
       <c r="J34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
       <c r="F35" s="1"/>
       <c r="J35">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1"/>
       <c r="J36">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M36" t="s">
         <v>97</v>
@@ -2927,26 +2925,26 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1"/>
       <c r="J37">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K37" t="s">
         <v>98</v>
       </c>
       <c r="L37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M37" t="s">
         <v>99</v>
@@ -2954,26 +2952,26 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1"/>
       <c r="J38">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K38" t="s">
         <v>100</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M38" t="s">
         <v>101</v>
@@ -2981,26 +2979,26 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>6</v>
       </c>
       <c r="F39" s="1"/>
       <c r="J39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K39" t="s">
         <v>102</v>
       </c>
       <c r="L39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M39" t="s">
         <v>103</v>
@@ -3008,26 +3006,26 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1"/>
       <c r="J40">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
         <v>104</v>
       </c>
       <c r="L40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M40" t="s">
         <v>105</v>
@@ -3035,142 +3033,142 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="D41">
         <v>10</v>
       </c>
       <c r="F41" s="1"/>
       <c r="J41">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K41" t="s">
         <v>106</v>
       </c>
       <c r="L41" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1"/>
       <c r="J42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1"/>
       <c r="J43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F44" s="1"/>
       <c r="J44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1"/>
       <c r="J45">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -3179,20 +3177,20 @@
         <v>72</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1"/>
       <c r="J46">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3203,28 +3201,28 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1"/>
       <c r="J47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -3233,20 +3231,20 @@
         <v>77</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1"/>
       <c r="J48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3257,182 +3255,182 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1"/>
       <c r="J49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="F50" s="1"/>
       <c r="J50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1"/>
       <c r="J51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" s="1"/>
       <c r="J52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F53" s="1"/>
       <c r="J53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F54" s="1"/>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1"/>
       <c r="J55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M55" t="s">
         <v>149</v>
@@ -3446,23 +3444,23 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1"/>
       <c r="J56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K56" t="s">
         <v>150</v>
       </c>
       <c r="L56" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3473,23 +3471,23 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1"/>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3500,23 +3498,23 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F58" s="1"/>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58" t="s">
+        <v>156</v>
+      </c>
+      <c r="L58" t="s">
+        <v>154</v>
+      </c>
+      <c r="M58" t="s">
         <v>155</v>
-      </c>
-      <c r="L58" t="s">
-        <v>156</v>
-      </c>
-      <c r="M58" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3527,23 +3525,23 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1"/>
       <c r="J59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K59" t="s">
+        <v>157</v>
+      </c>
+      <c r="L59" t="s">
         <v>158</v>
       </c>
-      <c r="L59" t="s">
-        <v>156</v>
-      </c>
       <c r="M59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3554,47 +3552,47 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1"/>
       <c r="J60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1"/>
       <c r="J61">
         <v>3</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M61" t="s">
         <v>164</v>
@@ -3602,277 +3600,265 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1"/>
       <c r="J62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K62" t="s">
         <v>165</v>
       </c>
       <c r="L62" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="M62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1"/>
       <c r="J63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F64" s="1"/>
       <c r="J64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="D65">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1"/>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F66" s="1"/>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1"/>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1"/>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1"/>
       <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" t="s">
-        <v>185</v>
-      </c>
-      <c r="L69" t="s">
-        <v>186</v>
-      </c>
-      <c r="M69" t="s">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1"/>
-      <c r="J70">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3881,16 +3867,16 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -3902,22 +3888,22 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3926,13 +3912,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3941,37 +3927,37 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
@@ -3992,74 +3978,59 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="10"/>
+    <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>315</v>
+      </c>
+      <c r="B83" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" t="s">
+        <v>291</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>7.7</v>
+      </c>
+      <c r="F83" s="1">
+        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
+        <v>7.7</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>318</v>
+      <c r="A84" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B84" t="s">
-        <v>319</v>
-      </c>
-      <c r="C84" t="s">
-        <v>294</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>7.7</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1">
         <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
       <c r="F85" s="1">
-        <f>Table2[[#This Row],[Cost/Unit (USD)]]*Table2[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="1">
-        <f>SUM(F3:F85)</f>
+        <f>SUM(F3:F84)</f>
         <v>1860.5316599999999</v>
       </c>
     </row>
@@ -4074,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242B8A8-C87E-45B6-A870-5B9AB09679FD}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4112,7 +4083,7 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4122,13 +4093,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4143,13 +4114,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4164,13 +4135,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4185,7 +4156,7 @@
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4195,13 +4166,13 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4216,13 +4187,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4237,13 +4208,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4258,13 +4229,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -4279,13 +4250,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -4300,13 +4271,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -4324,7 +4295,7 @@
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4334,13 +4305,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4355,31 +4326,31 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4389,13 +4360,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" t="s">
         <v>223</v>
-      </c>
-      <c r="B21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" t="s">
-        <v>225</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -4410,13 +4381,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -4431,7 +4402,7 @@
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4441,13 +4412,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4462,13 +4433,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" t="s">
         <v>259</v>
-      </c>
-      <c r="C25" t="s">
-        <v>261</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4483,13 +4454,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4504,13 +4475,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4525,7 +4496,7 @@
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4535,10 +4506,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4553,10 +4524,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F30">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
@@ -4565,13 +4536,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -4586,13 +4557,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" t="s">
         <v>365</v>
-      </c>
-      <c r="B32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" t="s">
-        <v>368</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4607,13 +4578,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -4628,13 +4599,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D34">
         <v>0.25</v>
@@ -4649,13 +4620,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -4670,7 +4641,7 @@
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4680,13 +4651,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -4701,77 +4672,77 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F38" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="5">
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>294.2</v>
+      </c>
+      <c r="F40" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>294.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B41" t="s">
+        <v>358</v>
+      </c>
+      <c r="C41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>150</v>
+      </c>
+      <c r="F41" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F42" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>252</v>
-      </c>
-      <c r="B41" t="s">
-        <v>326</v>
-      </c>
-      <c r="C41" t="s">
-        <v>253</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>294.2</v>
-      </c>
-      <c r="F41" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>294.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B42" t="s">
-        <v>361</v>
-      </c>
-      <c r="C42" t="s">
-        <v>362</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>150</v>
-      </c>
-      <c r="F42" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F43" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
@@ -4780,7 +4751,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F44" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
@@ -4789,7 +4760,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F45" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
@@ -4798,272 +4769,284 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F46" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F47" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>57.88</v>
+      </c>
+      <c r="F48" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>57.88</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" t="s">
         <v>233</v>
       </c>
-      <c r="C49" t="s">
-        <v>234</v>
-      </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>57.88</v>
+        <v>38.28</v>
       </c>
       <c r="F49" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>57.88</v>
+        <v>38.28</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>38.28</v>
+        <v>23.49</v>
       </c>
       <c r="F50" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>38.28</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>23.49</v>
+        <v>14.86</v>
       </c>
       <c r="F51" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>23.49</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>239</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>14.86</v>
+        <v>13.01</v>
       </c>
       <c r="F52" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>14.86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>369</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C53" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>13.01</v>
+        <v>2.19</v>
       </c>
       <c r="F53" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>13.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>2.19</v>
+        <v>7.63</v>
       </c>
       <c r="F54" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>4.38</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>308</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="C55" t="s">
         <v>307</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>7.63</v>
+        <v>2.23</v>
       </c>
       <c r="F55" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.63</v>
+        <v>57.98</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B56" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C56" t="s">
         <v>310</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>2.23</v>
+        <v>4.43</v>
       </c>
       <c r="F56" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>57.98</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>4.43</v>
+        <v>11.41</v>
       </c>
       <c r="F57" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>17.72</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>348</v>
+      <c r="A58" t="s">
+        <v>344</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C58" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>11.41</v>
+        <v>7.58</v>
       </c>
       <c r="F58" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>11.41</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="C59" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>7.58</v>
+        <v>2.87</v>
       </c>
       <c r="F59" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.58</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" t="s">
         <v>349</v>
-      </c>
-      <c r="B60" t="s">
-        <v>309</v>
-      </c>
-      <c r="C60" t="s">
-        <v>351</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -5076,87 +5059,87 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>350</v>
-      </c>
-      <c r="B61" t="s">
-        <v>309</v>
-      </c>
-      <c r="C61" t="s">
-        <v>352</v>
-      </c>
-      <c r="D61">
+    <row r="61" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" t="s">
+        <v>329</v>
+      </c>
+      <c r="C62">
+        <v>2847408</v>
+      </c>
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E61">
-        <v>2.87</v>
-      </c>
-      <c r="F61" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B63" t="s">
-        <v>332</v>
-      </c>
-      <c r="C63">
-        <v>2847408</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
+      <c r="E62">
         <v>388.26</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F62" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
         <v>776.52</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="9"/>
+    <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" t="s">
+        <v>320</v>
+      </c>
+      <c r="C64" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>6.63</v>
+      </c>
+      <c r="F64" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>6.63</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65" t="s">
         <v>268</v>
       </c>
-      <c r="B65" t="s">
-        <v>323</v>
-      </c>
-      <c r="C65" t="s">
-        <v>273</v>
-      </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>6.63</v>
+        <v>1.38</v>
       </c>
       <c r="F65" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>6.63</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5164,7 +5147,7 @@
         <v>269</v>
       </c>
       <c r="B66" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C66" t="s">
         <v>270</v>
@@ -5181,29 +5164,17 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>271</v>
-      </c>
-      <c r="B67" t="s">
-        <v>323</v>
-      </c>
-      <c r="C67" t="s">
-        <v>272</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1.38</v>
+      <c r="A67" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F67" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F68" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
@@ -5211,211 +5182,202 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F69" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>0</v>
+      <c r="A69" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" t="s">
+        <v>331</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
+      </c>
+      <c r="E69">
+        <v>78.39</v>
+      </c>
+      <c r="F69" s="1">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>15.678000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C70" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D70">
         <v>0.2</v>
       </c>
       <c r="E70">
-        <v>78.39</v>
+        <v>50.47</v>
       </c>
       <c r="F70" s="1">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>15.678000000000001</v>
+        <v>10.094000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>335</v>
+      <c r="A71" t="s">
+        <v>292</v>
       </c>
       <c r="B71" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="D71">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>50.47</v>
-      </c>
-      <c r="F71" s="1">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>10.094000000000001</v>
+        <v>5.46</v>
+      </c>
+      <c r="F71" s="5">
+        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
+        <v>5.46</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B72" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>5.46</v>
+        <v>13.9</v>
       </c>
       <c r="F72" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.46</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>13.9</v>
+        <v>7.62</v>
       </c>
       <c r="F73" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>13.9</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>7.62</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="F74" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>7.62</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B75" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>9.1300000000000008</v>
+        <v>65.41</v>
       </c>
       <c r="F75" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>9.1300000000000008</v>
+        <v>65.41</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B76" t="s">
         <v>321</v>
       </c>
       <c r="C76" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>65.41</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F76" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>65.41</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C77" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>5.0599999999999996</v>
+        <v>3.15</v>
       </c>
       <c r="F77" s="5">
         <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>5.0599999999999996</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>303</v>
-      </c>
-      <c r="B78" t="s">
-        <v>324</v>
-      </c>
-      <c r="C78" t="s">
-        <v>304</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>3.15</v>
-      </c>
       <c r="F78" s="5">
-        <f>Table3[[#This Row],[Quantity]]*Table3[[#This Row],[Cost/Unit (USD)]]</f>
-        <v>3.15</v>
+        <f>SUM(F3:F77)</f>
+        <v>7662.8069999999971</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F79" s="5">
-        <f>SUM(F3:F78)</f>
-        <v>7662.8069999999971</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F80" s="5"/>
+      <c r="F79" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
